--- a/log.xlsx
+++ b/log.xlsx
@@ -1,182 +1,206 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowHeight="12300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView windowHeight="12300"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Log" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Log" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Avg</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="10"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -476,159 +500,159 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -874,7 +898,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -883,7 +907,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -896,74 +920,11 @@
       <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1223,85 +1184,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.75" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
-    <col width="19" customWidth="1" style="1" min="1" max="1"/>
+    <col min="1" max="1" width="19" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t>Data</t>
-        </is>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" s="0" t="inlineStr">
-        <is>
-          <t>Avg</t>
-        </is>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>18/10/2024 14:59:01</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>0.365</t>
-        </is>
-      </c>
+    <row r="2" spans="1:1">
+      <c r="A2"/>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="inlineStr">
-        <is>
-          <t>18/10/2024 14:59:32</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>0.383</t>
-        </is>
-      </c>
+    <row r="3" spans="1:1">
+      <c r="A3"/>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="inlineStr">
-        <is>
-          <t>22/10/2024 15:22:10</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0.414775914616055</v>
-      </c>
+    <row r="4" spans="1:1">
+      <c r="A4"/>
     </row>
-    <row r="5">
-      <c r="A5" s="0" t="inlineStr">
-        <is>
-          <t>22/10/2024 15:23:10</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.3527353933224311</v>
-      </c>
+    <row r="5" spans="1:1">
+      <c r="A5"/>
     </row>
-    <row r="6">
-      <c r="A6" s="0" t="n"/>
+    <row r="6" spans="1:1">
+      <c r="A6"/>
     </row>
-    <row r="7">
-      <c r="A7" s="0" t="n"/>
+    <row r="7" spans="1:1">
+      <c r="A7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>